--- a/sources/case/Update_direct_report.xlsx
+++ b/sources/case/Update_direct_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>CaseID</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>employee_id</t>
-  </si>
-  <si>
-    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
   </si>
   <si>
     <t>report_to_id</t>
@@ -128,6 +125,22 @@
   </si>
   <si>
     <t>Update_direct_report_8</t>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_new1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,7 +472,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,7 +507,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -521,15 +534,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -542,95 +555,117 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -641,15 +676,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -658,71 +693,87 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Update_direct_report.xlsx
+++ b/sources/case/Update_direct_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>CaseID</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>${addMem_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_new2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +541,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,7 +663,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -770,7 +774,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>

--- a/sources/case/Update_direct_report.xlsx
+++ b/sources/case/Update_direct_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>CaseID</t>
   </si>
@@ -145,6 +145,33 @@
   <si>
     <t>Update_direct_report_new2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_new3</t>
+  </si>
+  <si>
+    <t>${addMem_3.uuid}</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new4</t>
+  </si>
+  <si>
+    <t>${addMem_4.uuid}</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new5</t>
+  </si>
+  <si>
+    <t>${addMem_5.uuid}</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new6</t>
+  </si>
+  <si>
+    <t>${addMem_6.uuid}</t>
+  </si>
+  <si>
+    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
   </si>
 </sst>
 </file>
@@ -475,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -538,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,6 +699,50 @@
         <v>35</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,10 +751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,6 +851,38 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/Update_direct_report.xlsx
+++ b/sources/case/Update_direct_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>CaseID</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>Update_direct_report_houlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,15 +577,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -741,6 +753,17 @@
       </c>
       <c r="C15" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,6 +906,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/Update_direct_report.xlsx
+++ b/sources/case/Update_direct_report.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>CaseID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>report_to_id</t>
   </si>
   <si>
-    <t>7e2c4e7a-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
@@ -78,15 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e2f1608-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>Update_direct_report_2</t>
   </si>
   <si>
@@ -100,21 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e306cb1-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e3142f6-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e31ef71-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e3324f3-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>Update_direct_report_5</t>
   </si>
   <si>
@@ -131,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Update_direct_report_new1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,9 +140,6 @@
     <t>${addMem_6.uuid}</t>
   </si>
   <si>
-    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>Update_direct_report_houlong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,8 +148,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Update_direct_report_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_10.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_11.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_17.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_18.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_19.employee_id}</t>
+  </si>
+  <si>
+    <t>Update_direct_report_9</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_20.employee_id}</t>
   </si>
 </sst>
 </file>
@@ -550,7 +551,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -577,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,167 +604,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -791,127 +803,132 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
